--- a/backtest/doublesort paper.xlsx
+++ b/backtest/doublesort paper.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="0" windowWidth="27240" windowHeight="14840"/>
+    <workbookView xWindow="6240" yWindow="0" windowWidth="27240" windowHeight="14840"/>
   </bookViews>
   <sheets>
     <sheet name="doublesort" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>turnover1</t>
   </si>
@@ -79,12 +79,18 @@
   </si>
   <si>
     <t>ret10</t>
+  </si>
+  <si>
+    <t>PF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0&quot;%&quot;"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,7 +408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -517,8 +523,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -561,11 +647,23 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -605,6 +703,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -885,16 +984,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -925,358 +1026,503 @@
       <c r="K1" t="s">
         <v>19</v>
       </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.89</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1.07</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0.67</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0.52</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>0.44</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>0.52</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>0.37</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>0.44</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>-0.08</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>-0.53</v>
       </c>
+      <c r="L2" s="4">
+        <f t="shared" ref="L2:L10" si="0">K2-B2</f>
+        <v>-1.42</v>
+      </c>
+      <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>1.06</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>0.98</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>0.71</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>0.53</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>0.79</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>0.64</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="6">
         <v>0.11</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="7">
         <v>-0.04</v>
       </c>
+      <c r="L3" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>1.23</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>0.6</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>0.73</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>0.5</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>0.44</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
         <v>0.25</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="6">
         <v>0.15</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="7">
         <v>-0.04</v>
       </c>
+      <c r="L4" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.17</v>
+      </c>
+      <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>1.07</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>1.05</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>0.96</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>0.63</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>0.69</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>0.4</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <v>0.41</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <v>0.22</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="7">
         <v>0.15</v>
       </c>
+      <c r="L5" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.92</v>
+      </c>
+      <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>0.99</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>0.82</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>0.91</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>0.84</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>0.66</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <v>0.73</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <v>0.31</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="6">
         <v>0.59</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <v>0.39</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="7">
         <v>0.3</v>
       </c>
+      <c r="L6" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.69</v>
+      </c>
+      <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>0.65</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>0.93</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>0.97</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>0.71</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>0.68</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <v>0.51</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <v>0.72</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6">
         <v>0.75</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <v>0.5</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="7">
         <v>0.27</v>
       </c>
+      <c r="L7" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.38</v>
+      </c>
+      <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>0.83</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>0.74</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>0.76</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>0.79</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>0.63</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <v>0.77</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="6">
         <v>0.64</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="6">
         <v>0.6</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="7">
         <v>0.31</v>
       </c>
+      <c r="L8" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.52</v>
+      </c>
+      <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>0.81</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>0.88</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>0.83</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>0.88</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>0.63</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <v>0.65</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="6">
         <v>0.67</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="6">
         <v>0.53</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="7">
         <v>0.63</v>
       </c>
+      <c r="L9" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.18000000000000005</v>
+      </c>
+      <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>0.42</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>0.98</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>0.87</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>1.01</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <v>0.73</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <v>0.81</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="6">
         <v>0.65</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="6">
         <v>0.71</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="7">
         <v>0.48</v>
       </c>
+      <c r="L10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>-0.43</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="9">
         <v>0.77</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <v>0.66</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="9">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="9">
         <v>0.49</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="9">
         <v>0.66</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="9">
         <v>0.77</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="9">
         <v>0.53</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="10">
         <v>0.88</v>
       </c>
+      <c r="L11" s="4">
+        <f>K11-B11</f>
+        <v>1.31</v>
+      </c>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4">
+        <f>B2-B11</f>
+        <v>1.32</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" ref="C12:K12" si="1">C2-C11</f>
+        <v>0.51</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="1"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.12999999999999995</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.29000000000000004</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.33</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.61</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.4100000000000001</v>
+      </c>
+      <c r="L12" s="4"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:K12">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:K12 L2:L11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:L12 L2:L11">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:L12">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:K11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -1289,6 +1535,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B12:K12 L2:L12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>